--- a/data/Eksklusion_lande/Sydinvest_eksklusionsliste_lande_isin.xlsx
+++ b/data/Eksklusion_lande/Sydinvest_eksklusionsliste_lande_isin.xlsx
@@ -133,7 +133,7 @@
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>West Bank And Gaza Strip</t>
+    <t>West Bank and Gaza Strip</t>
   </si>
   <si>
     <t>[]</t>
